--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_38.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3607883.302692792</v>
+        <v>3715880.813016523</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498526</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7625152.495825406</v>
+        <v>7595035.794131109</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>129.6689954036693</v>
       </c>
       <c r="X2" t="n">
-        <v>216.209257536856</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -832,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>61.41459162918812</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>27.43377265623011</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>225.4294976688886</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +949,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>93.90928920011586</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>34.11596912267498</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>85.45564210299095</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>54.52583691649687</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>265.1880594400988</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247746</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098773</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>164.8931035656051</v>
       </c>
       <c r="W10" t="n">
-        <v>218.6097747675214</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1528,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>21.63824106824998</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1543,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>74.20064764874475</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1616,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1765,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1777,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H16" t="n">
-        <v>101.6969570046971</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1841,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -2002,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>93.4044447618827</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2141,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2242,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>126.6321535627876</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>133.3722917337063</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2710,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>171.3759287839214</v>
       </c>
       <c r="C28" t="n">
-        <v>21.63824106824953</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2798,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722627</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898975</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>78.89395497654138</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652577</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808203</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096048</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.300005860055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898975</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652577</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808192</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096056</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>3.475606507923894</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.300005860055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898975</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652577</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808203</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096048</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>180.1003471321691</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.300005860055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898975</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652577</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808192</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096047</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972051</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.300005860055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898975</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652577</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808293</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096048</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>233.1549565045582</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.300005860055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0.6452826062324948</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,7 +4143,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4150,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4192,13 +4194,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>81.1139899822969</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1957.346298904865</v>
+        <v>1975.598450347025</v>
       </c>
       <c r="C2" t="n">
-        <v>1588.383781964454</v>
+        <v>1606.635933406614</v>
       </c>
       <c r="D2" t="n">
-        <v>1230.118083357703</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E2" t="n">
-        <v>844.329830759459</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>433.3439259698515</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
         <v>421.6795797345444</v>
@@ -4328,16 +4330,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.598450347025</v>
       </c>
       <c r="X2" t="n">
-        <v>2343.946138968987</v>
+        <v>1975.598450347025</v>
       </c>
       <c r="Y2" t="n">
-        <v>2343.946138968987</v>
+        <v>1975.598450347025</v>
       </c>
     </row>
     <row r="3">
@@ -4401,34 +4403,34 @@
         <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>1057.327935297104</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>1420.589954256325</v>
+        <v>1227.201367341572</v>
       </c>
       <c r="N3" t="n">
-        <v>1807.87508285327</v>
+        <v>1614.486495938517</v>
       </c>
       <c r="O3" t="n">
-        <v>2139.945518029432</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2387.128251861729</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>580.2476435302228</v>
+        <v>603.8705643698324</v>
       </c>
       <c r="C4" t="n">
-        <v>411.3114606023159</v>
+        <v>603.8705643698324</v>
       </c>
       <c r="D4" t="n">
-        <v>261.1948211899802</v>
+        <v>453.7539249574967</v>
       </c>
       <c r="E4" t="n">
-        <v>113.2817276075871</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="F4" t="n">
-        <v>113.2817276075871</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G4" t="n">
-        <v>113.2817276075871</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269232</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1124.34930177307</v>
+        <v>1086.544603473737</v>
       </c>
       <c r="V4" t="n">
-        <v>869.6648135671834</v>
+        <v>831.8601152678498</v>
       </c>
       <c r="W4" t="n">
-        <v>580.2476435302228</v>
+        <v>831.8601152678498</v>
       </c>
       <c r="X4" t="n">
-        <v>580.2476435302228</v>
+        <v>603.8705643698324</v>
       </c>
       <c r="Y4" t="n">
-        <v>580.2476435302228</v>
+        <v>603.8705643698324</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1457.824646659611</v>
+        <v>1699.061860336089</v>
       </c>
       <c r="C5" t="n">
-        <v>1230.118083357703</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="D5" t="n">
-        <v>1230.118083357703</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E5" t="n">
-        <v>844.329830759459</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F5" t="n">
-        <v>433.3439259698515</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872916</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4583,34 +4585,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2342.782253047721</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190805</v>
+        <v>2089.201192311901</v>
       </c>
       <c r="V5" t="n">
-        <v>2184.059060190805</v>
+        <v>2089.201192311901</v>
       </c>
       <c r="W5" t="n">
-        <v>1831.290404920691</v>
+        <v>2089.201192311901</v>
       </c>
       <c r="X5" t="n">
-        <v>1457.824646659611</v>
+        <v>2089.201192311901</v>
       </c>
       <c r="Y5" t="n">
-        <v>1457.824646659611</v>
+        <v>1699.061860336089</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4643,28 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>684.9695361605188</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L6" t="n">
-        <v>979.6730931919906</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M6" t="n">
-        <v>1342.935112151211</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1730.220240748156</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>825.1371474485138</v>
+        <v>1931.908733528369</v>
       </c>
       <c r="C7" t="n">
-        <v>656.2009645206069</v>
+        <v>1762.972550600462</v>
       </c>
       <c r="D7" t="n">
-        <v>621.7403896492181</v>
+        <v>1612.855911188127</v>
       </c>
       <c r="E7" t="n">
-        <v>473.8272960668249</v>
+        <v>1464.942817605734</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>1318.052870107823</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>1231.734039700762</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N7" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U7" t="n">
-        <v>825.1371474485138</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V7" t="n">
-        <v>825.1371474485138</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="W7" t="n">
-        <v>825.1371474485138</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="X7" t="n">
-        <v>825.1371474485138</v>
+        <v>2334.349777502139</v>
       </c>
       <c r="Y7" t="n">
-        <v>825.1371474485138</v>
+        <v>2113.557198358609</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1944.904841306683</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="C8" t="n">
-        <v>1575.942324366272</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>421.6795797345445</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218339</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>2382.56351798067</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.60582160917</v>
+        <v>2382.56351798067</v>
       </c>
       <c r="W8" t="n">
-        <v>2972.837166339055</v>
+        <v>2382.56351798067</v>
       </c>
       <c r="X8" t="n">
-        <v>2599.371408077976</v>
+        <v>2382.56351798067</v>
       </c>
       <c r="Y8" t="n">
-        <v>2331.504681370805</v>
+        <v>1992.424186004858</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218338</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>477.7578170212613</v>
+        <v>535.0593816855418</v>
       </c>
       <c r="C10" t="n">
-        <v>477.7578170212613</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="D10" t="n">
-        <v>477.7578170212613</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764912</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>976.33877587604</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502318</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935977</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672846</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242372</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621287</v>
+        <v>1273.25868176405</v>
       </c>
       <c r="W10" t="n">
-        <v>659.406281851501</v>
+        <v>983.8415117270893</v>
       </c>
       <c r="X10" t="n">
-        <v>659.406281851501</v>
+        <v>755.8519608290719</v>
       </c>
       <c r="Y10" t="n">
-        <v>659.406281851501</v>
+        <v>535.0593816855418</v>
       </c>
     </row>
     <row r="11">
@@ -5021,49 +5023,49 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492579</v>
@@ -5072,16 +5074,16 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5127,19 +5129,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1231.938859683104</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876693</v>
+        <v>802.9288273958739</v>
       </c>
       <c r="C13" t="n">
-        <v>559.0424953278208</v>
+        <v>633.992644467967</v>
       </c>
       <c r="D13" t="n">
-        <v>408.925855915485</v>
+        <v>483.8760050556313</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>335.9629114732381</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>335.9629114732381</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>168.7668121881181</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5221,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614391</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.547769317909</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="14">
@@ -5258,37 +5260,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5361,22 +5363,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996072</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P15" t="n">
-        <v>2443.97263649114</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5413,19 +5415,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>363.7369613277355</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>363.7369613277355</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F16" t="n">
-        <v>363.7369613277355</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G16" t="n">
-        <v>196.5408620426154</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5510,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,7 +5533,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5589,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>579.1554649516142</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1176.533952578166</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>317.6151975578602</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E19" t="n">
-        <v>317.6151975578602</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>196.5408620426154</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5741,28 +5743,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5789,10 +5791,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,25 +5834,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O21" t="n">
-        <v>2222.001901828445</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,37 +5980,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6069,19 +6071,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P24" t="n">
         <v>2319.799627685893</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>695.5020655703109</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>526.5658826424041</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>376.4492432300683</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>228.5361496476752</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>228.5361496476752</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6212,19 +6214,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6239,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,25 +6305,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N27" t="n">
-        <v>1670.092171589158</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O27" t="n">
-        <v>2222.001901828445</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>3052.912304341663</v>
       </c>
       <c r="C28" t="n">
-        <v>559.0424953278208</v>
+        <v>2883.976121413757</v>
       </c>
       <c r="D28" t="n">
-        <v>408.925855915485</v>
+        <v>2733.859482001421</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>2733.859482001421</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>4218.903091397696</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>3964.218603191809</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>3674.801433154848</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>3446.811882256831</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>3226.019303113301</v>
       </c>
     </row>
     <row r="29">
@@ -6440,70 +6442,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2978.493192213311</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C31" t="n">
-        <v>2834.086956247061</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D31" t="n">
-        <v>2708.500263796381</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="E31" t="n">
-        <v>2585.117117175645</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>2462.75711663939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>2320.090964315927</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>2202.909080119781</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2145.352323729351</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>2249.630143176794</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2535.361206719452</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>2949.801601912512</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3395.853105660666</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3837.304778337793</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4230.875860063898</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4547.593116654575</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4648.317395612652</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4489.992508229213</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>4294.92099021381</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>4030.375710519664</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>3800.221169275434</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>3535.33394620013</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>3331.874342263769</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y31" t="n">
-        <v>3135.611710081895</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L33" t="n">
-        <v>634.5603720565526</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.938859683105</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319321</v>
+        <v>866.4638174991042</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656815</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580112</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345475</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532431</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>2040.996070613739</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1786.311582407852</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -6968,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>429.5088224239596</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1026.887310050512</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
         <v>2319.799627685893</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2978.493192213311</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C37" t="n">
-        <v>2834.086956247061</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D37" t="n">
-        <v>2708.500263796381</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>2585.117117175645</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>2462.75711663939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>2320.090964315927</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>2202.909080119781</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>2145.352323729351</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2249.630143176794</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2535.361206719452</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>2949.801601912512</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3395.853105660666</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3837.304778337793</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4230.875860063898</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4547.593116654575</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4648.317395612652</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4489.992508229213</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>4294.92099021381</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>4030.375710519664</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V37" t="n">
-        <v>3800.221169275434</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W37" t="n">
-        <v>3535.33394620013</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X37" t="n">
-        <v>3331.874342263769</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y37" t="n">
-        <v>3135.611710081895</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="38">
@@ -7154,40 +7156,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7254,25 +7256,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,40 +7423,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
@@ -7494,19 +7496,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O42" t="n">
-        <v>2297.690135143765</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319321</v>
+        <v>634.4644740681601</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656815</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1808.996727182795</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1554.312238976908</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1264.895068939947</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1036.90551804193</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>816.1129388983999</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,10 +7660,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,7 +7681,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123003</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>315.9123021921482</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>913.2907898187001</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,55 +7782,55 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>726.955532171245</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C46" t="n">
-        <v>558.0193492433381</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D46" t="n">
-        <v>407.9027098310023</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
         <v>2264.108249235165</v>
@@ -7840,16 +7842,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X46" t="n">
-        <v>1129.396576145015</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.6039970014847</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
   </sheetData>
@@ -8055,31 +8057,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621886</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179982</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>255.8421700460943</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>35.91627445172458</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>138.9393975111054</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>54.95314511566465</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>265.0304328515147</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23416,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>145.6085800303779</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23431,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>66.09406519747911</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H16" t="n">
-        <v>38.5977558415268</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23890,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>55.21102825632966</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>38.5977558415268</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>32.15184655856257</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24598,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>8.456051398015887</v>
       </c>
       <c r="C28" t="n">
-        <v>145.6085800303783</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24844,16 +24846,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>67.54000767002779</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.7088678813203</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25318,10 +25320,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25360,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>106.084127257075</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>143.6212754172146</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25789,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>53.02951788468593</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.1866975757048</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26080,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>144.5956654067402</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>663542.7995065623</v>
+        <v>670078.9197577402</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>652426.6633671405</v>
+        <v>652426.6633671403</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>663542.7995065623</v>
+        <v>652426.6633671403</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>663542.7995065623</v>
+        <v>652426.6633671405</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>663542.7995065623</v>
+        <v>652426.6633671405</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>663542.7995065623</v>
+        <v>652426.6633671403</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>663542.7995065623</v>
+        <v>652426.6633671405</v>
       </c>
     </row>
     <row r="16">
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>779989.6813710695</v>
+      </c>
+      <c r="C2" t="n">
         <v>779989.6813710694</v>
       </c>
-      <c r="C2" t="n">
-        <v>779989.6813710697</v>
-      </c>
       <c r="D2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.6813710696</v>
       </c>
       <c r="E2" t="n">
         <v>766789.2697055057</v>
       </c>
       <c r="F2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="G2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="H2" t="n">
         <v>766789.2697055059</v>
@@ -26335,25 +26337,25 @@
         <v>766789.2697055059</v>
       </c>
       <c r="J2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.269705506</v>
       </c>
       <c r="K2" t="n">
-        <v>779989.6813710693</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="L2" t="n">
-        <v>779989.6813710695</v>
+        <v>766789.269705506</v>
       </c>
       <c r="M2" t="n">
-        <v>779989.6813710694</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="N2" t="n">
-        <v>779989.6813710694</v>
+        <v>766789.2697055062</v>
       </c>
       <c r="O2" t="n">
-        <v>779989.6813710694</v>
+        <v>766789.269705506</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055059</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403374</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073559</v>
+        <v>507485.4416245461</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363181</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819068</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
-        <v>86694.40323307102</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
+        <v>7507.368461719667</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7507.368461719627</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7507.36846171961</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7507.368461719667</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7507.368461719667</v>
+      </c>
+      <c r="O4" t="n">
         <v>7507.368461719668</v>
       </c>
-      <c r="K4" t="n">
-        <v>15498.22772481315</v>
-      </c>
-      <c r="L4" t="n">
-        <v>15498.22772481315</v>
-      </c>
-      <c r="M4" t="n">
-        <v>15498.22772481315</v>
-      </c>
-      <c r="N4" t="n">
-        <v>15498.22772481315</v>
-      </c>
-      <c r="O4" t="n">
-        <v>15498.22772481315</v>
-      </c>
       <c r="P4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26472,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-560813.7381914391</v>
+        <v>-560813.7381914392</v>
       </c>
       <c r="C6" t="n">
-        <v>553938.0453844807</v>
+        <v>553938.0453844804</v>
       </c>
       <c r="D6" t="n">
-        <v>392734.1971362671</v>
+        <v>553938.0453844809</v>
       </c>
       <c r="E6" t="n">
-        <v>332746.909612523</v>
+        <v>150673.9297953328</v>
       </c>
       <c r="F6" t="n">
-        <v>658159.3714198794</v>
+        <v>658159.3714198791</v>
       </c>
       <c r="G6" t="n">
-        <v>658159.3714198791</v>
+        <v>658159.371419879</v>
       </c>
       <c r="H6" t="n">
         <v>658159.3714198791</v>
@@ -26543,25 +26545,25 @@
         <v>658159.3714198791</v>
       </c>
       <c r="J6" t="n">
-        <v>490554.1936098963</v>
+        <v>490554.1936098966</v>
       </c>
       <c r="K6" t="n">
-        <v>641899.6197987089</v>
+        <v>658159.3714198791</v>
       </c>
       <c r="L6" t="n">
-        <v>613033.3677841503</v>
+        <v>658159.3714198794</v>
       </c>
       <c r="M6" t="n">
-        <v>576272.3098568289</v>
+        <v>525552.0776909525</v>
       </c>
       <c r="N6" t="n">
-        <v>661327.3377923409</v>
+        <v>658159.3714198794</v>
       </c>
       <c r="O6" t="n">
-        <v>661327.3377923409</v>
+        <v>658159.3714198791</v>
       </c>
       <c r="P6" t="n">
-        <v>658159.371419879</v>
+        <v>658159.3714198791</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175393</v>
+      </c>
+      <c r="C3" t="n">
+        <v>934.0648921175393</v>
+      </c>
+      <c r="D3" t="n">
         <v>934.0648921175391</v>
-      </c>
-      <c r="C3" t="n">
-        <v>934.0648921175392</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,13 +26792,13 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26814,10 +26816,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26826,10 +26828,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757586</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26984,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022537</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,13 +27387,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -27436,13 +27438,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>219.5719733137437</v>
       </c>
       <c r="X2" t="n">
-        <v>153.521843141613</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27537,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27552,10 +27554,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>85.83691752594075</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>258.7933814649705</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>139.843394102119</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27628,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>112.7488957801179</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>114.4995038955374</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>80.85095794181323</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>196.5194132119651</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>121.0498792159548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,16 +28022,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>87.24453975822291</v>
       </c>
       <c r="W10" t="n">
-        <v>67.91322356906963</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31039,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31291,16 +31293,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31312,7 +31314,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31361,7 +31363,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31373,16 +31375,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31440,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31467,7 +31469,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31476,7 +31478,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681596</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844665</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953987</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003808</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623191</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574991</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>781.714899009502</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099056</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746411</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781688</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806946</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502565</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752254</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138794</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233473</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837921</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970248</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002925</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898494</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297389</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702023</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316431</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802168</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712211</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112292</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31847,7 +31849,7 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>302.9675447508045</v>
+        <v>339.9772972286967</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071786</v>
@@ -31862,7 +31864,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32081,7 +32083,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32093,13 +32095,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q15" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,22 +32311,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>567.5882829286713</v>
       </c>
       <c r="N18" t="n">
-        <v>263.7590256391499</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32336,7 +32338,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32552,28 +32554,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>213.1625787491746</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,22 +32791,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>436.4492970000073</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
@@ -33023,28 +33025,28 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>431.3680753731354</v>
+        <v>550.5977692975241</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>333.9544784328822</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,13 +33490,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,34 +33505,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>533.6019216797995</v>
+        <v>209.9499448422518</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>451.9270028924504</v>
+        <v>139.5228722182826</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>477.8500485393211</v>
       </c>
       <c r="M39" t="n">
-        <v>620.1193660647499</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>665.2579603615019</v>
       </c>
       <c r="P42" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>209.9499448422525</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496632</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
+        <v>297.6803606378502</v>
+      </c>
+      <c r="M3" t="n">
         <v>640.5848321000387</v>
       </c>
-      <c r="M3" t="n">
-        <v>366.9313322820404</v>
-      </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>591.2668520422174</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>152.3969967825791</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,19 +34938,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34957,7 +34959,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
         <v>451.0527332560634</v>
@@ -35021,19 +35023,19 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>474.3640795072284</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>304.632674239197</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35106,13 +35108,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687124</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554003</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923318</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302264</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>552.301835412911</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882189</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193715</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037193</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222467</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597702</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340052</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>451.794267901329</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004589</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525803</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859623</v>
+        <v>514.7099619750469</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306617</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>319.757372170198</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934837</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675399</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451103</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789357</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35495,7 +35497,7 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>160.8335108287862</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238454</v>
@@ -35510,7 +35512,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35729,7 +35731,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35741,13 +35743,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>425.454249006653</v>
       </c>
       <c r="N18" t="n">
-        <v>132.4173135558165</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35984,7 +35986,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36200,28 +36202,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>73.18080466315305</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36379,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,22 +36439,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>302.474889585677</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
@@ -36616,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>297.3936679588052</v>
+        <v>416.6233618831939</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36913,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>191.3582339884378</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37153,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>395.0475418999253</v>
+        <v>71.39556506237764</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>320.5852908091172</v>
+        <v>8.181160134949316</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37624,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>339.2956687594469</v>
       </c>
       <c r="M39" t="n">
-        <v>477.9853321427316</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,22 +37864,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>522.6617159170574</v>
       </c>
       <c r="P42" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>71.39556506237828</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3715880.813016523</v>
+        <v>3711743.655766371</v>
       </c>
     </row>
     <row r="7">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>140.0157171358163</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>129.6689954036693</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,16 +828,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>27.43377265623011</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>23.94563726208596</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>14.6271499099058</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>93.90928920011586</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>85.45564210299095</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>50.98074812542808</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>163.1366525438116</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>54.52583691649687</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>164.8931035656051</v>
+        <v>50.98074812542808</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174113</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1533,10 +1533,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>74.20064764874475</v>
+        <v>83.06560892428172</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444133</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2004,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>101.6969570046971</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>41.33703994142957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.3759287839214</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,7 +2721,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>141.5888089825039</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722627</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2958,16 +2958,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>78.89395497654138</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0109307051779</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3082,7 +3082,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>3.475606507923894</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>180.1003471321691</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146491</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>1.799772605716619</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417122</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>233.1549565045582</v>
+        <v>239.7247859410136</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.6452826062324948</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4149,10 +4149,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>275.330023919727</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1975.598450347025</v>
+        <v>1324.805867331309</v>
       </c>
       <c r="C2" t="n">
-        <v>1606.635933406614</v>
+        <v>955.8433503908975</v>
       </c>
       <c r="D2" t="n">
-        <v>1248.370234799863</v>
+        <v>955.8433503908975</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>570.0550977926532</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>563.1095970434498</v>
       </c>
       <c r="G2" t="n">
         <v>421.6795797345444</v>
@@ -4330,16 +4330,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V2" t="n">
-        <v>2106.577233583055</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="W2" t="n">
-        <v>1975.598450347025</v>
+        <v>2084.871465656511</v>
       </c>
       <c r="X2" t="n">
-        <v>1975.598450347025</v>
+        <v>1711.405707395431</v>
       </c>
       <c r="Y2" t="n">
-        <v>1975.598450347025</v>
+        <v>1711.405707395431</v>
       </c>
     </row>
     <row r="3">
@@ -4385,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>870.3292415458918</v>
       </c>
       <c r="M3" t="n">
-        <v>1227.201367341572</v>
+        <v>1233.591260505112</v>
       </c>
       <c r="N3" t="n">
-        <v>1614.486495938517</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O3" t="n">
         <v>2199.840679460312</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.8705643698324</v>
+        <v>981.8280128167645</v>
       </c>
       <c r="C4" t="n">
-        <v>603.8705643698324</v>
+        <v>812.8918298888576</v>
       </c>
       <c r="D4" t="n">
-        <v>453.7539249574967</v>
+        <v>662.7751904765219</v>
       </c>
       <c r="E4" t="n">
-        <v>305.8408313751036</v>
+        <v>514.8620968941287</v>
       </c>
       <c r="F4" t="n">
-        <v>305.8408313751036</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1086.544603473737</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>831.8601152678498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>831.8601152678498</v>
+        <v>1612.258607688552</v>
       </c>
       <c r="X4" t="n">
-        <v>603.8705643698324</v>
+        <v>1384.269056790534</v>
       </c>
       <c r="Y4" t="n">
-        <v>603.8705643698324</v>
+        <v>1163.476477647004</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1699.061860336089</v>
+        <v>1287.435190625612</v>
       </c>
       <c r="C5" t="n">
-        <v>1330.099343395678</v>
+        <v>1287.435190625612</v>
       </c>
       <c r="D5" t="n">
-        <v>1330.099343395678</v>
+        <v>929.1694920188613</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974335</v>
+        <v>543.381239420617</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>132.3953346310095</v>
       </c>
       <c r="G5" t="n">
         <v>117.6204357321147</v>
@@ -4564,16 +4564,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872916</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4585,34 +4585,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2342.782253047721</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2089.201192311901</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V5" t="n">
-        <v>2089.201192311901</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="W5" t="n">
-        <v>2089.201192311901</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="X5" t="n">
-        <v>2089.201192311901</v>
+        <v>2064.174362665545</v>
       </c>
       <c r="Y5" t="n">
-        <v>1699.061860336089</v>
+        <v>1674.035030689734</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735142</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049859</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.390115761151</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1937.460550937313</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
         <v>2239.046898434118</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1931.908733528369</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C7" t="n">
-        <v>1762.972550600462</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D7" t="n">
-        <v>1612.855911188127</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E7" t="n">
-        <v>1464.942817605734</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>1318.052870107823</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>1231.734039700762</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>1082.995141564268</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>977.1399948936612</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>2562.339328400156</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>2562.339328400156</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>2562.339328400156</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>2562.339328400156</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>2562.339328400156</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>2562.339328400156</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W7" t="n">
-        <v>2562.339328400156</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X7" t="n">
-        <v>2334.349777502139</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y7" t="n">
-        <v>2113.557198358609</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1992.424186004858</v>
+        <v>603.6036480119269</v>
       </c>
       <c r="C8" t="n">
-        <v>1992.424186004858</v>
+        <v>234.6411310715152</v>
       </c>
       <c r="D8" t="n">
-        <v>1634.158487398107</v>
+        <v>234.6411310715152</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>234.6411310715152</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>227.6956303223117</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345445</v>
+        <v>216.0312840870047</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872912</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4825,31 +4825,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U8" t="n">
-        <v>2382.56351798067</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V8" t="n">
-        <v>2382.56351798067</v>
+        <v>2106.577233583054</v>
       </c>
       <c r="W8" t="n">
-        <v>2382.56351798067</v>
+        <v>1753.80857831294</v>
       </c>
       <c r="X8" t="n">
-        <v>2382.56351798067</v>
+        <v>1380.34282005186</v>
       </c>
       <c r="Y8" t="n">
-        <v>1992.424186004858</v>
+        <v>990.2034880760486</v>
       </c>
     </row>
     <row r="9">
@@ -4877,28 +4877,28 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049857</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1352.031492328576</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>535.0593816855418</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C10" t="n">
-        <v>366.1231987576349</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>366.1231987576349</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4989,25 +4989,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1273.25868176405</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W10" t="n">
-        <v>983.8415117270893</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X10" t="n">
-        <v>755.8519608290719</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y10" t="n">
-        <v>535.0593816855418</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="11">
@@ -5023,61 +5023,61 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797184</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075789</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014776</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355934</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068007</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852888</v>
@@ -5108,34 +5108,34 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190824</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>802.9288273958739</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>633.992644467967</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>483.8760050556313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>335.9629114732381</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>335.9629114732381</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>168.7668121881181</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.5772922261136</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5269,19 +5269,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5497,28 +5497,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5533,7 +5533,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951538</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1368.154262550759</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1920.063992790046</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2343.687142285114</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5652,19 +5652,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>363.7369613277355</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>363.7369613277355</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>363.7369613277355</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>196.5408620426154</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5734,19 +5734,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5758,13 +5758,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5834,25 +5834,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5901,10 +5901,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5977,31 +5977,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,7 +6010,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.439756756785</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6217,16 +6217,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3052.912304341663</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C28" t="n">
-        <v>2883.976121413757</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D28" t="n">
-        <v>2733.859482001421</v>
+        <v>550.9217088032285</v>
       </c>
       <c r="E28" t="n">
-        <v>2733.859482001421</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>2586.969534503511</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4507.978318053498</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>4507.978318053498</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>4218.903091397696</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V28" t="n">
-        <v>3964.218603191809</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W28" t="n">
-        <v>3674.801433154848</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X28" t="n">
-        <v>3446.811882256831</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y28" t="n">
-        <v>3226.019303113301</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="29">
@@ -6442,70 +6442,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6554,16 +6554,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>741.843151638089</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C31" t="n">
-        <v>572.9069687101821</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D31" t="n">
-        <v>422.7903292978464</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>343.0994656851783</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6645,28 +6645,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1870.758369404391</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.073881198504</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1326.656711161544</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611859</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="Y31" t="n">
-        <v>923.4916164683287</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="32">
@@ -6691,16 +6691,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075798</v>
@@ -6724,10 +6724,10 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>315.9123021921476</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898186995</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373306</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>866.4638174991042</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>697.5276345711973</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711973</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
         <v>402.7245934908938</v>
@@ -6852,10 +6852,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6882,28 +6882,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>2040.996070613739</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1786.311582407852</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1496.894412370891</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1268.904861472874</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1048.112282329344</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6931,22 +6931,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -6955,31 +6955,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.8641191832228</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>634.9279362553159</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1434.29471405501</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1206.305163156993</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>985.5125840134625</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7168,7 +7168,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192599</v>
@@ -7177,46 +7177,46 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>913.2907898186995</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898186995</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7320,16 +7320,16 @@
         <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000582</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7408,28 +7408,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852256</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>634.4644740681601</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>465.5282911402533</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>465.5282911402533</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
@@ -7593,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1808.996727182795</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1554.312238976908</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1264.895068939947</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>1036.90551804193</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>816.1129388983999</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7636,16 +7636,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111716</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.176478190824</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>847.644273983533</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711973</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888042</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782958</v>
@@ -7830,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V46" t="n">
-        <v>1755.431557602304</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W46" t="n">
-        <v>1466.014387565343</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>1238.024836667326</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>1017.232257523796</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -8063,16 +8063,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>280.1079373569282</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179982</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O3" t="n">
-        <v>255.8421700460943</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>54.95314511566465</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,25 +8531,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>273.6534998179983</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>129.751134705686</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>265.0304328515147</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>-4.09256585965352e-13</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>66.09406519747911</v>
+        <v>57.22910392194217</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>38.5977558415268</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.456051398015887</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>4.845153664065236</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,10 +24654,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,16 +24846,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>67.54000767002779</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>114.1735436840662</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25083,10 +25083,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>282.7088678813203</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,19 +25362,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>106.084127257075</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>57.22910392194186</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>143.6212754172146</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>53.02951788468593</v>
+        <v>46.45968844823051</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.1866975757048</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>10.85445046951713</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>652426.6633671405</v>
+        <v>652426.6633671403</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>652426.6633671403</v>
+        <v>652426.6633671405</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>652426.6633671405</v>
+        <v>652426.6633671403</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>652426.6633671403</v>
+        <v>652426.6633671405</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>652426.6633671403</v>
+        <v>652426.6633671405</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>652426.6633671405</v>
+        <v>652426.6633671403</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>652426.6633671405</v>
+        <v>652426.6633671403</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>652426.6633671405</v>
+        <v>652426.6633671403</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>652426.6633671405</v>
+        <v>652426.6633671403</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710695</v>
+        <v>779989.6813710697</v>
       </c>
       <c r="C2" t="n">
+        <v>779989.6813710693</v>
+      </c>
+      <c r="D2" t="n">
         <v>779989.6813710694</v>
       </c>
-      <c r="D2" t="n">
-        <v>779989.6813710696</v>
-      </c>
       <c r="E2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="F2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055062</v>
       </c>
       <c r="G2" t="n">
         <v>766789.2697055058</v>
@@ -26334,28 +26334,28 @@
         <v>766789.2697055059</v>
       </c>
       <c r="I2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="J2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="L2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="M2" t="n">
+        <v>766789.2697055062</v>
+      </c>
+      <c r="N2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="O2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="P2" t="n">
         <v>766789.269705506</v>
-      </c>
-      <c r="K2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="L2" t="n">
-        <v>766789.269705506</v>
-      </c>
-      <c r="M2" t="n">
-        <v>766789.2697055058</v>
-      </c>
-      <c r="N2" t="n">
-        <v>766789.2697055062</v>
-      </c>
-      <c r="O2" t="n">
-        <v>766789.269705506</v>
-      </c>
-      <c r="P2" t="n">
-        <v>766789.2697055059</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245461</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.30296939460095e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719749</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171967</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171967</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171967</v>
       </c>
       <c r="I4" t="n">
         <v>7507.368461719667</v>
@@ -26444,10 +26444,10 @@
         <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719627</v>
+        <v>7507.368461719632</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.36846171961</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="M4" t="n">
         <v>7507.368461719667</v>
@@ -26456,7 +26456,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.36846171963</v>
       </c>
       <c r="P4" t="n">
         <v>7507.368461719667</v>
@@ -26472,10 +26472,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-560813.7381914392</v>
+        <v>-560813.7381914388</v>
       </c>
       <c r="C6" t="n">
+        <v>553938.0453844803</v>
+      </c>
+      <c r="D6" t="n">
         <v>553938.0453844804</v>
       </c>
-      <c r="D6" t="n">
-        <v>553938.0453844809</v>
-      </c>
       <c r="E6" t="n">
-        <v>150673.9297953328</v>
+        <v>150326.5505409763</v>
       </c>
       <c r="F6" t="n">
-        <v>658159.3714198791</v>
+        <v>657811.9921655222</v>
       </c>
       <c r="G6" t="n">
-        <v>658159.371419879</v>
+        <v>657811.992165522</v>
       </c>
       <c r="H6" t="n">
-        <v>658159.3714198791</v>
+        <v>657811.9921655222</v>
       </c>
       <c r="I6" t="n">
-        <v>658159.3714198791</v>
+        <v>657811.992165522</v>
       </c>
       <c r="J6" t="n">
-        <v>490554.1936098966</v>
+        <v>490206.8143555396</v>
       </c>
       <c r="K6" t="n">
-        <v>658159.3714198791</v>
+        <v>657811.9921655221</v>
       </c>
       <c r="L6" t="n">
-        <v>658159.3714198794</v>
+        <v>657811.9921655222</v>
       </c>
       <c r="M6" t="n">
-        <v>525552.0776909525</v>
+        <v>525204.6984365957</v>
       </c>
       <c r="N6" t="n">
-        <v>658159.3714198794</v>
+        <v>657811.992165522</v>
       </c>
       <c r="O6" t="n">
-        <v>658159.3714198791</v>
+        <v>657811.992165522</v>
       </c>
       <c r="P6" t="n">
-        <v>658159.3714198791</v>
+        <v>657811.9921655223</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26792,10 +26792,10 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26816,22 +26816,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="M4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>271.5319856371377</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27438,13 +27438,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>219.5719733137437</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>258.7933814649705</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>262.5773610745051</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>396.9205528630482</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -27669,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>112.7488957801179</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>80.85095794181323</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27833,10 +27833,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>201.1568951983999</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>137.8819000185938</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,16 +27909,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>196.5194132119651</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551289</v>
@@ -28061,7 +28061,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -28070,7 +28070,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>87.24453975822291</v>
+        <v>201.1568951983999</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28140,10 +28140,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28152,7 +28152,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.68896825005964e-12</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28857,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>339.9772972286967</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>369.1789913099997</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,13 +32074,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32089,19 +32089,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32311,22 +32311,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>567.5882829286713</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32335,7 +32335,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>351.4708102230528</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32554,10 +32554,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,16 +32566,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,19 +32785,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32806,10 +32806,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>436.4492970000073</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,16 +33022,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33043,13 +33043,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>550.5977692975241</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33274,19 +33274,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>333.9544784328822</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33502,10 +33502,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>209.9499448422518</v>
+        <v>337.5641188593843</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862122</v>
@@ -33517,13 +33517,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33736,10 +33736,10 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473073</v>
@@ -33748,16 +33748,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>139.5228722182826</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33970,7 +33970,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33979,25 +33979,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>477.8500485393211</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34146,7 +34146,7 @@
         <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236508</v>
@@ -34207,7 +34207,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34216,7 +34216,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
@@ -34225,13 +34225,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>665.2579603615019</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34383,10 +34383,10 @@
         <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669224</v>
@@ -34447,10 +34447,10 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473073</v>
@@ -34459,16 +34459,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>359.7096985496632</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>577.7882979947783</v>
       </c>
       <c r="M3" t="n">
+        <v>366.9313322820404</v>
+      </c>
+      <c r="N3" t="n">
         <v>640.5848321000387</v>
       </c>
-      <c r="N3" t="n">
-        <v>391.197099592874</v>
-      </c>
       <c r="O3" t="n">
-        <v>591.2668520422174</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>304.632674239197</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>520.9482342985599</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>514.7099619750469</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308545</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>197.8432633066783</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35737,19 +35737,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>425.454249006653</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35983,7 +35983,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>211.4890361370313</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,10 +36202,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,16 +36214,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -36433,19 +36433,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36454,10 +36454,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>302.474889585677</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36691,13 +36691,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>416.6233618831939</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193518</v>
@@ -36922,19 +36922,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>191.3582339884378</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37150,10 +37150,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>71.39556506237764</v>
+        <v>199.0097390795101</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37165,13 +37165,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L36" t="n">
         <v>500.3288951674331</v>
@@ -37396,16 +37396,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>8.181160134949316</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>339.2956687594469</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37794,7 +37794,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683813</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,7 +37864,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,13 +37873,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>522.6617159170574</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38031,10 +38031,10 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924729</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L45" t="n">
         <v>500.3288951674331</v>
@@ -38107,16 +38107,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>228.3679864663299</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3711743.655766371</v>
+        <v>3713504.186069157</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7595035.794131109</v>
+        <v>7595035.794131108</v>
       </c>
     </row>
     <row r="11">
@@ -664,19 +664,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>140.0157171358163</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>78.22260562412514</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -718,10 +718,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -837,7 +837,7 @@
         <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>23.94563726208596</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>137.7336954102803</v>
       </c>
     </row>
     <row r="5">
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>14.6271499099058</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>192.2415752082178</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>50.98074812542808</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>24.55276019063715</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>286.5888679426061</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1150,7 +1150,7 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>163.1366525438116</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>50.98074812542808</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>85.36610313819104</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1432,13 +1432,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174113</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560518</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428172</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>42.5313457611372</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444133</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>27.02919805176109</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>71.58885292963951</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>141.5888089825039</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2964,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>172.0109307051779</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179931</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>229.2938944146491</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417122</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>239.7247859410136</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4146,7 +4146,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>275.330023919727</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1324.805867331309</v>
+        <v>1346.511635257853</v>
       </c>
       <c r="C2" t="n">
-        <v>955.8433503908975</v>
+        <v>977.5491183174415</v>
       </c>
       <c r="D2" t="n">
-        <v>955.8433503908975</v>
+        <v>619.2834197106911</v>
       </c>
       <c r="E2" t="n">
-        <v>570.0550977926532</v>
+        <v>619.2834197106911</v>
       </c>
       <c r="F2" t="n">
-        <v>563.1095970434498</v>
+        <v>208.2975149210835</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>196.6331686857765</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V2" t="n">
-        <v>2437.640120926625</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W2" t="n">
-        <v>2084.871465656511</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="X2" t="n">
-        <v>1711.405707395431</v>
+        <v>1733.111475321975</v>
       </c>
       <c r="Y2" t="n">
-        <v>1711.405707395431</v>
+        <v>1733.111475321975</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
@@ -4406,31 +4406,31 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>143.6627691908473</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>590.2049751143501</v>
       </c>
       <c r="L3" t="n">
-        <v>870.3292415458918</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M3" t="n">
-        <v>1233.591260505112</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.77024428415</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>981.8280128167645</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C4" t="n">
-        <v>812.8918298888576</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D4" t="n">
-        <v>662.7751904765219</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
-        <v>514.8620968941287</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9721493962184</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
@@ -4527,13 +4527,13 @@
         <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>1612.258607688552</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X4" t="n">
-        <v>1384.269056790534</v>
+        <v>1408.45656917648</v>
       </c>
       <c r="Y4" t="n">
-        <v>1163.476477647004</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1287.435190625612</v>
+        <v>1412.134398099143</v>
       </c>
       <c r="C5" t="n">
-        <v>1287.435190625612</v>
+        <v>1412.134398099143</v>
       </c>
       <c r="D5" t="n">
-        <v>929.1694920188613</v>
+        <v>1053.868699492392</v>
       </c>
       <c r="E5" t="n">
-        <v>543.381239420617</v>
+        <v>668.0804468941478</v>
       </c>
       <c r="F5" t="n">
-        <v>132.3953346310095</v>
+        <v>257.0945421045403</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>245.4301958692332</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4588,31 +4588,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="W5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="X5" t="n">
-        <v>2064.174362665545</v>
+        <v>2188.873570139076</v>
       </c>
       <c r="Y5" t="n">
-        <v>1674.035030689734</v>
+        <v>1798.734238163264</v>
       </c>
     </row>
     <row r="6">
@@ -4640,10 +4640,10 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
@@ -4713,19 +4713,19 @@
         <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4761,10 +4761,10 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1584.950414897297</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W7" t="n">
-        <v>1295.533244860336</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="X7" t="n">
         <v>1067.543693962319</v>
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603.6036480119269</v>
+        <v>728.3028554854568</v>
       </c>
       <c r="C8" t="n">
-        <v>234.6411310715152</v>
+        <v>359.3403385450451</v>
       </c>
       <c r="D8" t="n">
-        <v>234.6411310715152</v>
+        <v>359.3403385450451</v>
       </c>
       <c r="E8" t="n">
-        <v>234.6411310715152</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F8" t="n">
-        <v>227.6956303223117</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>216.0312840870047</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
         <v>51.2467865680031</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2106.577233583054</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W8" t="n">
-        <v>1753.80857831294</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="X8" t="n">
-        <v>1380.34282005186</v>
+        <v>1505.04202752539</v>
       </c>
       <c r="Y8" t="n">
-        <v>990.2034880760486</v>
+        <v>1114.902695549579</v>
       </c>
     </row>
     <row r="9">
@@ -4883,16 +4883,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>423.148951518066</v>
+        <v>551.602574876695</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495377</v>
+        <v>846.3061319081667</v>
       </c>
       <c r="M9" t="n">
-        <v>1352.031492328576</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N9" t="n">
         <v>1867.77024428415</v>
@@ -4998,7 +4998,7 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1584.950414897297</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W10" t="n">
         <v>1295.533244860336</v>
@@ -5032,58 +5032,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797184</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075789</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355934</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5108,16 +5108,16 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273899</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803937</v>
@@ -5129,10 +5129,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5190,13 +5190,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5299,13 +5299,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
@@ -5369,13 +5369,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5415,25 +5415,25 @@
         <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5460,7 +5460,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
         <v>2336.956424518383</v>
@@ -5497,16 +5497,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5594,25 +5594,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961525</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M18" t="n">
-        <v>740.5562989961525</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N18" t="n">
-        <v>1368.154262550759</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>1920.063992790046</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2343.687142285114</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5734,40 +5734,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5901,10 +5901,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5980,7 +5980,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5992,7 +5992,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6077,10 +6077,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6183,16 +6183,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1170.979132919728</v>
       </c>
     </row>
     <row r="26">
@@ -6214,7 +6214,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6311,10 +6311,10 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
         <v>2001.151557821488</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>869.9745311434712</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>701.0383482155643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>550.9217088032285</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1051.622995973711</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,40 +6451,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U31" t="n">
-        <v>1870.758369404391</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.073881198504</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W31" t="n">
-        <v>1326.656711161544</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X31" t="n">
-        <v>1098.667160263526</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y31" t="n">
-        <v>1098.667160263526</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,19 +6776,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
         <v>2001.151557821488</v>
@@ -6837,16 +6837,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6858,28 +6858,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2437.724555511392</v>
@@ -6919,67 +6919,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245705</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,67 +7156,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7405,55 +7405,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,16 +7484,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797189</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797189</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7727,19 +7727,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.204779583153</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8057,19 +8057,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>30.36925650589494</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>280.1079373569282</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>255.8421700460947</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179983</v>
+        <v>273.6534998179982</v>
       </c>
       <c r="N9" t="n">
-        <v>129.751134705686</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>-4.09256585965352e-13</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194217</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>138.4949402405074</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405078</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>108.2431272522978</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>4.845153664065236</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>114.1735436840662</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194173</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>57.22910392194186</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>46.45968844823051</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -26043,7 +26043,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>10.85445046951713</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>652426.6633671405</v>
+        <v>652426.6633671403</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>652426.6633671405</v>
+        <v>652426.6633671403</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>652426.6633671405</v>
+        <v>652426.6633671403</v>
       </c>
     </row>
     <row r="12">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710697</v>
+        <v>779989.6813710696</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710693</v>
+        <v>779989.6813710694</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710694</v>
+        <v>779989.6813710696</v>
       </c>
       <c r="E2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="F2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="G2" t="n">
         <v>766789.2697055059</v>
-      </c>
-      <c r="F2" t="n">
-        <v>766789.2697055062</v>
-      </c>
-      <c r="G2" t="n">
-        <v>766789.2697055058</v>
       </c>
       <c r="H2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="I2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="J2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="K2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="L2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="M2" t="n">
         <v>766789.2697055057</v>
-      </c>
-      <c r="J2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="K2" t="n">
-        <v>766789.2697055058</v>
-      </c>
-      <c r="L2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="M2" t="n">
-        <v>766789.2697055062</v>
       </c>
       <c r="N2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="O2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055059</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
-        <v>1.30296939460095e-10</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26401,7 +26401,7 @@
         <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11379904410569e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>133113.8635467444</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
         <v>133113.8635467444</v>
@@ -26429,13 +26429,13 @@
         <v>7507.368461719749</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.36846171967</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.36846171967</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.36846171967</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
         <v>7507.368461719667</v>
@@ -26444,10 +26444,10 @@
         <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719632</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
         <v>7507.368461719667</v>
@@ -26456,7 +26456,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.36846171963</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="P4" t="n">
         <v>7507.368461719667</v>
@@ -26472,7 +26472,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26524,46 +26524,46 @@
         <v>-560813.7381914388</v>
       </c>
       <c r="C6" t="n">
-        <v>553938.0453844803</v>
+        <v>553938.0453844804</v>
       </c>
       <c r="D6" t="n">
-        <v>553938.0453844804</v>
+        <v>553938.0453844806</v>
       </c>
       <c r="E6" t="n">
-        <v>150326.5505409763</v>
+        <v>150639.1918698978</v>
       </c>
       <c r="F6" t="n">
-        <v>657811.9921655222</v>
+        <v>658124.6334944434</v>
       </c>
       <c r="G6" t="n">
-        <v>657811.992165522</v>
+        <v>658124.6334944435</v>
       </c>
       <c r="H6" t="n">
-        <v>657811.9921655222</v>
+        <v>658124.6334944435</v>
       </c>
       <c r="I6" t="n">
-        <v>657811.992165522</v>
+        <v>658124.6334944434</v>
       </c>
       <c r="J6" t="n">
-        <v>490206.8143555396</v>
+        <v>490519.4556844609</v>
       </c>
       <c r="K6" t="n">
-        <v>657811.9921655221</v>
+        <v>658124.6334944435</v>
       </c>
       <c r="L6" t="n">
-        <v>657811.9921655222</v>
+        <v>658124.6334944436</v>
       </c>
       <c r="M6" t="n">
-        <v>525204.6984365957</v>
+        <v>525517.3397655166</v>
       </c>
       <c r="N6" t="n">
-        <v>657811.992165522</v>
+        <v>658124.6334944435</v>
       </c>
       <c r="O6" t="n">
-        <v>657811.992165522</v>
+        <v>658124.6334944435</v>
       </c>
       <c r="P6" t="n">
-        <v>657811.9921655223</v>
+        <v>658124.6334944435</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
@@ -26822,13 +26822,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27047,7 +27047,7 @@
         <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>271.5319856371377</v>
-      </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>222.7959469382802</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27438,10 +27438,10 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>262.5773610745051</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>80.85095794181453</v>
       </c>
     </row>
     <row r="5">
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>396.9205528630482</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>108.7769773541876</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27833,13 +27833,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>201.1568951983999</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>201.1568951984</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27861,7 +27861,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>95.34150212965568</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>137.8819000185938</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -28070,10 +28070,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>201.1568951983999</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>201.1568951984</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28140,10 +28140,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28152,13 +28152,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.68896825005964e-12</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
     </row>
     <row r="12">
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28857,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,25 +31840,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>369.1789913099997</v>
+        <v>369.1789913100002</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32089,16 +32089,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9598929192557</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>369.1789913099997</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32314,19 +32314,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>451.9270028924504</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32335,7 +32335,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>351.4708102230528</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32797,13 +32797,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33031,13 +33031,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>400.5469039565762</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>337.5641188593843</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,19 +33739,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,19 +34777,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>93.34947739681233</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>577.7882979947783</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000387</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
@@ -34798,10 +34798,10 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>442.4296662895795</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35263,7 +35263,7 @@
         <v>640.5848321000387</v>
       </c>
       <c r="N9" t="n">
-        <v>520.9482342985599</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>226.5827468655553</v>
+        <v>226.5827468655557</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35737,16 +35737,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>332.6181808359224</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,19 +35962,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>320.5852908091172</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35983,7 +35983,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>211.4890361370313</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,13 +36445,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>199.0097390795102</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>257.9506595121318</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>199.0097390795101</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,19 +37387,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
